--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAB1D39-79AF-496E-8C9B-A0E9FFD2A709}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E54354-B64D-4CB4-B4B4-AF10567B031F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="756" windowWidth="17280" windowHeight="9024" tabRatio="529" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="529" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cinema" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="249">
   <si>
     <t>Sorting</t>
   </si>
@@ -222,9 +222,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Panoramic Photo</t>
-  </si>
-  <si>
     <t>BINARY</t>
   </si>
   <si>
@@ -825,10 +822,16 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>Cash Zone, SS_Cash Zone</t>
-  </si>
-  <si>
-    <t>Menu Board, Cash Zone, SS_Menu Board, SS_Cash Zone</t>
+    <t>Panoramic Photo, SS_Panoramic Photo</t>
+  </si>
+  <si>
+    <t>Panoramic photo of Cooler, SS_Panoramic photo of Cooler - Horeca</t>
+  </si>
+  <si>
+    <t>Cash Zone, SS_Cash Zone - Canteen, QSR</t>
+  </si>
+  <si>
+    <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
   </si>
 </sst>
 </file>
@@ -897,7 +900,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -948,6 +951,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -956,7 +974,7 @@
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1020,6 +1038,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1409,7 +1430,7 @@
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" topLeftCell="U1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X7" sqref="X7"/>
+      <selection pane="bottomLeft" activeCell="Y41" sqref="Y41:Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1761,14 +1782,14 @@
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
       <c r="Z4" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF4" s="17">
         <v>4.0169999999999997E-2</v>
@@ -1806,10 +1827,10 @@
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>53</v>
@@ -1821,7 +1842,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O5" s="14">
         <v>5449000131836</v>
@@ -1843,14 +1864,14 @@
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
       <c r="AE5" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF5" s="17">
         <v>4.0169000000000003E-2</v>
@@ -1888,10 +1909,10 @@
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>53</v>
@@ -1903,7 +1924,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O6" s="14">
         <v>40822938</v>
@@ -1925,14 +1946,14 @@
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
       <c r="AE6" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF6" s="17">
         <v>4.0146000000000001E-2</v>
@@ -1970,10 +1991,10 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>53</v>
@@ -1985,7 +2006,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O7" s="14">
         <v>54491069</v>
@@ -2007,14 +2028,14 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
       <c r="AE7" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF7" s="17">
         <v>4.0146000000000001E-2</v>
@@ -2052,10 +2073,10 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>53</v>
@@ -2067,7 +2088,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O8" s="14">
         <v>42099697</v>
@@ -2089,14 +2110,14 @@
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
       <c r="AE8" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF8" s="17">
         <v>2.1691999999999999E-2</v>
@@ -2134,10 +2155,10 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>53</v>
@@ -2149,7 +2170,7 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O9" s="14">
         <v>5449000214744</v>
@@ -2171,14 +2192,14 @@
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
       <c r="AE9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF9" s="17">
         <v>2.1691999999999999E-2</v>
@@ -2216,10 +2237,10 @@
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>53</v>
@@ -2231,7 +2252,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O10" s="14">
         <v>5449000172228</v>
@@ -2253,14 +2274,14 @@
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
       <c r="AE10" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF10" s="17">
         <v>2.1691999999999999E-2</v>
@@ -2298,10 +2319,10 @@
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>53</v>
@@ -2313,10 +2334,10 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -2335,14 +2356,14 @@
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
       <c r="AE11" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF11" s="12">
         <v>7.293E-3</v>
@@ -2376,14 +2397,14 @@
         <v>41</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>48</v>
@@ -2424,7 +2445,7 @@
         <v>10</v>
       </c>
       <c r="AM12" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AN12" s="9">
         <v>300</v>
@@ -2444,14 +2465,14 @@
         <v>41</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>53</v>
@@ -2463,7 +2484,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O13" s="14">
         <v>40822426</v>
@@ -2485,14 +2506,14 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
       <c r="AE13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF13" s="17">
         <v>2.0908E-2</v>
@@ -2526,14 +2547,14 @@
         <v>41</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>53</v>
@@ -2545,10 +2566,10 @@
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -2567,14 +2588,14 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
       <c r="AE14" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF14" s="17">
         <v>1.1924000000000001E-2</v>
@@ -2608,14 +2629,14 @@
         <v>41</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>48</v>
@@ -2676,14 +2697,14 @@
         <v>41</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>53</v>
@@ -2695,10 +2716,10 @@
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
@@ -2717,14 +2738,14 @@
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF16" s="17">
         <v>1.1924000000000001E-2</v>
@@ -2758,14 +2779,14 @@
         <v>41</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>48</v>
@@ -2806,7 +2827,7 @@
         <v>15</v>
       </c>
       <c r="AM17" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN17" s="9">
         <v>300</v>
@@ -2826,14 +2847,14 @@
         <v>41</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>53</v>
@@ -2845,10 +2866,10 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
@@ -2867,14 +2888,14 @@
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF18" s="12">
         <v>2.0892000000000001E-2</v>
@@ -2908,14 +2929,14 @@
         <v>41</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>53</v>
@@ -2927,7 +2948,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O19" s="14">
         <v>4607042430879</v>
@@ -2949,14 +2970,14 @@
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
       <c r="AE19" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF19" s="12">
         <v>1.1924000000000001E-2</v>
@@ -2990,14 +3011,14 @@
         <v>41</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>53</v>
@@ -3009,10 +3030,10 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
@@ -3031,14 +3052,14 @@
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
       <c r="AE20" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF20" s="12">
         <v>1.1924000000000001E-2</v>
@@ -3072,14 +3093,14 @@
         <v>41</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>53</v>
@@ -3091,10 +3112,10 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O21" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -3113,14 +3134,14 @@
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF21" s="12">
         <v>1.1924000000000001E-2</v>
@@ -3154,14 +3175,14 @@
         <v>41</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>48</v>
@@ -3202,7 +3223,7 @@
         <v>20</v>
       </c>
       <c r="AM22" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AN22" s="9">
         <v>300</v>
@@ -3222,14 +3243,14 @@
         <v>41</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>53</v>
@@ -3241,7 +3262,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O23" s="14">
         <v>4607174577787</v>
@@ -3263,14 +3284,14 @@
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
       <c r="AE23" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF23" s="12">
         <v>2.0892000000000001E-2</v>
@@ -3304,14 +3325,14 @@
         <v>41</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>53</v>
@@ -3323,7 +3344,7 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O24" s="14">
         <v>4650075420980</v>
@@ -3345,14 +3366,14 @@
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
       <c r="AE24" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF24" s="12">
         <v>7.4479999999999998E-3</v>
@@ -3386,14 +3407,14 @@
         <v>41</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>53</v>
@@ -3405,10 +3426,10 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O25" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
@@ -3427,14 +3448,14 @@
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
       <c r="AE25" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF25" s="17">
         <v>7.4479999999999998E-3</v>
@@ -3468,14 +3489,14 @@
         <v>41</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>53</v>
@@ -3487,10 +3508,10 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O26" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>119</v>
       </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
@@ -3509,14 +3530,14 @@
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
       <c r="AE26" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF26" s="17">
         <v>7.4479999999999998E-3</v>
@@ -3550,14 +3571,14 @@
         <v>41</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>53</v>
@@ -3569,10 +3590,10 @@
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O27" s="14" t="s">
         <v>122</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>123</v>
       </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -3591,14 +3612,14 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
       <c r="AE27" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF27" s="12">
         <v>7.4479999999999998E-3</v>
@@ -3632,14 +3653,14 @@
         <v>41</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>53</v>
@@ -3651,10 +3672,10 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
@@ -3673,14 +3694,14 @@
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
       <c r="AE28" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF28" s="17">
         <v>7.4479999999999998E-3</v>
@@ -3714,14 +3735,14 @@
         <v>41</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>53</v>
@@ -3733,10 +3754,10 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
@@ -3755,14 +3776,14 @@
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
       <c r="AE29" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF29" s="17">
         <v>7.4479999999999998E-3</v>
@@ -3787,7 +3808,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>40</v>
@@ -3798,10 +3819,10 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>41</v>
@@ -3840,7 +3861,7 @@
         <v>310</v>
       </c>
       <c r="AM30" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AN30" s="9"/>
     </row>
@@ -3849,7 +3870,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>40</v>
@@ -3860,10 +3881,10 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>41</v>
@@ -3913,7 +3934,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>40</v>
@@ -3922,17 +3943,17 @@
         <v>41</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="I32" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -3943,7 +3964,7 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
       <c r="R32" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
@@ -3957,10 +3978,10 @@
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
       <c r="AD32" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE32" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="AE32" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="AF32" s="12">
         <v>0.08</v>
@@ -3968,7 +3989,7 @@
       <c r="AG32" s="9"/>
       <c r="AH32" s="9"/>
       <c r="AI32" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AJ32" s="9"/>
       <c r="AK32" s="9">
@@ -3978,7 +3999,7 @@
         <v>26</v>
       </c>
       <c r="AM32" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AN32" s="9">
         <v>311</v>
@@ -3989,7 +4010,7 @@
         <v>40</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>40</v>
@@ -3998,17 +4019,17 @@
         <v>41</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9">
@@ -4017,23 +4038,23 @@
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O33" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="O33" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -4041,16 +4062,16 @@
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
       <c r="AD33" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE33" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF33" s="12"/>
       <c r="AG33" s="9"/>
       <c r="AH33" s="9"/>
       <c r="AI33" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9">
@@ -4069,7 +4090,7 @@
         <v>41</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>40</v>
@@ -4078,17 +4099,17 @@
         <v>41</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9">
@@ -4097,23 +4118,23 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O34" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -4121,10 +4142,10 @@
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE34" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF34" s="12"/>
       <c r="AG34" s="9"/>
@@ -4147,7 +4168,7 @@
         <v>42</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>40</v>
@@ -4158,10 +4179,10 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>41</v>
@@ -4200,7 +4221,7 @@
         <v>312</v>
       </c>
       <c r="AM35" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AN35" s="9">
         <v>310</v>
@@ -4211,7 +4232,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>40</v>
@@ -4220,17 +4241,17 @@
         <v>41</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9">
@@ -4240,13 +4261,13 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
@@ -4255,18 +4276,18 @@
       <c r="X36" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Y36" s="9" t="s">
-        <v>164</v>
+      <c r="Y36" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE36" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF36" s="12">
         <v>0.04</v>
@@ -4274,10 +4295,10 @@
       <c r="AG36" s="9"/>
       <c r="AH36" s="9"/>
       <c r="AI36" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AJ36" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK36" s="9">
         <v>2</v>
@@ -4295,7 +4316,7 @@
         <v>44</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>40</v>
@@ -4304,17 +4325,17 @@
         <v>41</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="I37" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="J37" s="9"/>
       <c r="K37" s="9">
@@ -4323,23 +4344,23 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O37" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -4347,10 +4368,10 @@
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE37" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="AE37" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="AF37" s="12">
         <v>0.04</v>
@@ -4358,10 +4379,10 @@
       <c r="AG37" s="9"/>
       <c r="AH37" s="9"/>
       <c r="AI37" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK37" s="9">
         <v>2</v>
@@ -4379,7 +4400,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>40</v>
@@ -4388,17 +4409,17 @@
         <v>41</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="I38" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -4409,23 +4430,23 @@
         <v>15</v>
       </c>
       <c r="N38" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O38" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="O38" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
       <c r="X38" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -4433,10 +4454,10 @@
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
       <c r="AD38" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE38" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF38" s="12">
         <v>0.04</v>
@@ -4444,10 +4465,10 @@
       <c r="AG38" s="9"/>
       <c r="AH38" s="9"/>
       <c r="AI38" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AJ38" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK38" s="9">
         <v>2</v>
@@ -4465,7 +4486,7 @@
         <v>46</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>40</v>
@@ -4476,10 +4497,10 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>41</v>
@@ -4518,7 +4539,7 @@
         <v>400</v>
       </c>
       <c r="AM39" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN39" s="9"/>
     </row>
@@ -4527,7 +4548,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>40</v>
@@ -4536,14 +4557,14 @@
         <v>41</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>179</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>53</v>
@@ -4555,10 +4576,10 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O40" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="O40" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
@@ -4566,27 +4587,27 @@
         <v>54</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y40" s="9" t="s">
-        <v>246</v>
+        <v>179</v>
+      </c>
+      <c r="Y40" s="23" t="s">
+        <v>247</v>
       </c>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
       <c r="AD40" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE40" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF40" s="12">
         <v>0.05</v>
@@ -4611,7 +4632,7 @@
         <v>49</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>40</v>
@@ -4620,17 +4641,17 @@
         <v>41</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="I41" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9">
@@ -4643,7 +4664,7 @@
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S41" s="9"/>
       <c r="T41" s="9"/>
@@ -4651,20 +4672,20 @@
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y41" s="9" t="s">
-        <v>247</v>
+        <v>179</v>
+      </c>
+      <c r="Y41" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
       <c r="AD41" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE41" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF41" s="12">
         <v>0.28000000000000003</v>
@@ -4680,7 +4701,7 @@
         <v>34</v>
       </c>
       <c r="AM41" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN41" s="9">
         <v>400</v>
@@ -4691,7 +4712,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>40</v>
@@ -4700,14 +4721,14 @@
         <v>41</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>53</v>
@@ -4719,10 +4740,10 @@
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="O42" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="O42" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
@@ -4737,20 +4758,20 @@
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
       <c r="X42" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y42" s="9" t="s">
-        <v>247</v>
+        <v>179</v>
+      </c>
+      <c r="Y42" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
       <c r="AD42" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE42" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF42" s="12"/>
       <c r="AG42" s="9"/>
@@ -4773,7 +4794,7 @@
         <v>51</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>40</v>
@@ -4782,14 +4803,14 @@
         <v>41</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>192</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>53</v>
@@ -4801,13 +4822,13 @@
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O43" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="O43" s="9" t="s">
+      <c r="P43" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="P43" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="Q43" s="9"/>
       <c r="R43" s="9" t="s">
@@ -4821,26 +4842,26 @@
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y43" s="9" t="s">
-        <v>247</v>
+        <v>179</v>
+      </c>
+      <c r="Y43" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
       <c r="AD43" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE43" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF43" s="12"/>
       <c r="AG43" s="9"/>
       <c r="AH43" s="9"/>
       <c r="AI43" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ43" s="9"/>
       <c r="AK43" s="9">
@@ -4859,7 +4880,7 @@
         <v>52</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>40</v>
@@ -4868,17 +4889,17 @@
         <v>41</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H44" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H44" s="9" t="s">
-        <v>199</v>
-      </c>
       <c r="I44" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9">
@@ -4891,7 +4912,7 @@
       <c r="P44" s="9"/>
       <c r="Q44" s="14"/>
       <c r="R44" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
@@ -4899,10 +4920,10 @@
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
       <c r="X44" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y44" s="9" t="s">
-        <v>247</v>
+        <v>179</v>
+      </c>
+      <c r="Y44" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
@@ -4910,7 +4931,7 @@
       <c r="AC44" s="9"/>
       <c r="AD44" s="9"/>
       <c r="AE44" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF44" s="17">
         <v>7.0000000000000007E-2</v>
@@ -4937,7 +4958,7 @@
         <v>56</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>40</v>
@@ -4946,17 +4967,17 @@
         <v>41</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H45" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="I45" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>202</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9">
@@ -4969,7 +4990,7 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
@@ -4977,20 +4998,20 @@
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
       <c r="X45" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y45" s="9" t="s">
-        <v>247</v>
+        <v>179</v>
+      </c>
+      <c r="Y45" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
       <c r="AD45" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE45" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF45" s="17"/>
       <c r="AG45" s="9"/>
@@ -5004,7 +5025,7 @@
         <v>769</v>
       </c>
       <c r="AM45" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN45" s="9">
         <v>680</v>
@@ -5015,7 +5036,7 @@
         <v>57</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>40</v>
@@ -5024,16 +5045,16 @@
         <v>41</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F46" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="H46" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>53</v>
@@ -5045,42 +5066,42 @@
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R46" s="9" t="s">
         <v>54</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
       <c r="X46" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y46" s="9" t="s">
-        <v>247</v>
+        <v>179</v>
+      </c>
+      <c r="Y46" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
       <c r="AD46" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE46" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF46" s="17"/>
       <c r="AG46" s="9"/>
@@ -5103,7 +5124,7 @@
         <v>58</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>40</v>
@@ -5112,16 +5133,16 @@
         <v>41</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F47" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="H47" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="I47" s="9" t="s">
         <v>53</v>
@@ -5133,13 +5154,13 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O47" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="O47" s="9" t="s">
+      <c r="P47" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="P47" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="Q47" s="9"/>
       <c r="R47" s="9" t="s">
@@ -5153,26 +5174,26 @@
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
       <c r="X47" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y47" s="9" t="s">
-        <v>247</v>
+        <v>179</v>
+      </c>
+      <c r="Y47" s="23" t="s">
+        <v>248</v>
       </c>
       <c r="Z47" s="9"/>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
       <c r="AD47" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE47" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF47" s="17"/>
       <c r="AG47" s="9"/>
       <c r="AH47" s="9"/>
       <c r="AI47" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ47" s="9"/>
       <c r="AK47" s="9">
@@ -5191,29 +5212,29 @@
         <v>59</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>212</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>213</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H48" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="I48" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="J48" s="9" t="s">
         <v>216</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>217</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -5224,7 +5245,7 @@
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
       <c r="S48" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
@@ -5248,7 +5269,7 @@
         <v>37</v>
       </c>
       <c r="AM48" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN48" s="9"/>
     </row>
@@ -5257,42 +5278,42 @@
         <v>60</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="H49" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="H49" s="19" t="s">
+      <c r="I49" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="J49" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
       <c r="S49" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
@@ -5325,42 +5346,42 @@
         <v>61</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H50" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="H50" s="19" t="s">
-        <v>227</v>
-      </c>
       <c r="I50" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="J50" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
       <c r="S50" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
@@ -5393,44 +5414,44 @@
         <v>62</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I51" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="J51" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="O51" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="O51" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
       <c r="S51" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
@@ -5463,44 +5484,44 @@
         <v>63</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="H52" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="H52" s="19" t="s">
-        <v>234</v>
-      </c>
       <c r="I52" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="J52" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O52" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
       <c r="S52" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
@@ -5524,7 +5545,7 @@
         <v>42</v>
       </c>
       <c r="AM52" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AN52" s="9"/>
     </row>
@@ -5533,49 +5554,49 @@
         <v>64</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H53" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="H53" s="19" t="s">
+      <c r="I53" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="I53" s="9" t="s">
-        <v>240</v>
-      </c>
       <c r="J53" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
       <c r="N53" s="9"/>
       <c r="O53" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
       <c r="S53" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
       <c r="X53" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y53" s="15"/>
       <c r="Z53" s="9"/>
@@ -5601,27 +5622,27 @@
         <v>65</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="H54" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="I54" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="J54" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>245</v>
       </c>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
@@ -5632,7 +5653,7 @@
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
       <c r="S54" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS\POS_2019-10-21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Downloads\CCRU new KPI\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E54354-B64D-4CB4-B4B4-AF10567B031F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB01E65-F712-4462-AD6C-438634271832}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="529" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="529" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cinema" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Cinema!$A$1:$AN$54</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Cinema!$A$1:$AN$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cinema!$A$1:$AO$54</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="254">
   <si>
     <t>Sorting</t>
   </si>
@@ -684,9 +684,6 @@
 771</t>
   </si>
   <si>
-    <t>Coke and meal: Image</t>
-  </si>
-  <si>
     <t>Juice and meal: Image</t>
   </si>
   <si>
@@ -697,9 +694,6 @@
   </si>
   <si>
     <t>BRAND</t>
-  </si>
-  <si>
-    <t>Coke and meal: Food</t>
   </si>
   <si>
     <t>Juice and meal: Food</t>
@@ -832,6 +826,27 @@
   </si>
   <si>
     <t>Menu Board, Cash Zone, SS_Cash Zone - Canteen, QSR, SS_Menu Board - Canteen, QSR</t>
+  </si>
+  <si>
+    <t>Category KPI Type</t>
+  </si>
+  <si>
+    <t>Category KPI Value</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>ice tea</t>
+  </si>
+  <si>
+    <t>Juices</t>
   </si>
 </sst>
 </file>
@@ -886,7 +901,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -897,6 +912,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -974,7 +995,7 @@
       <alignment horizontal="left" vertical="center" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1040,6 +1061,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1426,58 +1453,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK54"/>
+  <dimension ref="A1:AML54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="U1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y41" sqref="Y41:Y47"/>
+    <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="7"/>
-    <col min="2" max="2" width="11.6640625" style="7"/>
-    <col min="3" max="3" width="11.77734375" style="7"/>
-    <col min="4" max="4" width="11.21875" style="7"/>
-    <col min="5" max="5" width="16.109375" style="7"/>
-    <col min="6" max="6" width="8.88671875" style="7"/>
-    <col min="7" max="7" width="84.6640625" style="7"/>
-    <col min="8" max="8" width="79.88671875" style="7"/>
-    <col min="9" max="9" width="44.33203125" style="7"/>
-    <col min="10" max="10" width="16.33203125" style="7"/>
-    <col min="11" max="11" width="8.88671875" style="7"/>
-    <col min="12" max="13" width="13.33203125" style="7"/>
-    <col min="14" max="15" width="57.33203125" style="7"/>
-    <col min="16" max="16" width="19.6640625" style="7"/>
-    <col min="17" max="17" width="11.21875" style="7"/>
-    <col min="18" max="18" width="18.88671875" style="7"/>
-    <col min="19" max="19" width="13.77734375" style="7"/>
-    <col min="20" max="20" width="7" style="7"/>
-    <col min="21" max="21" width="14.6640625" style="7"/>
-    <col min="22" max="22" width="18.109375" style="7"/>
-    <col min="23" max="23" width="23" style="7"/>
-    <col min="24" max="24" width="22.6640625" style="7"/>
-    <col min="25" max="25" width="23.88671875" style="7"/>
-    <col min="26" max="26" width="20.33203125" style="7"/>
-    <col min="27" max="27" width="26.33203125" style="7"/>
-    <col min="28" max="28" width="27" style="7"/>
-    <col min="29" max="29" width="16.109375" style="7"/>
-    <col min="30" max="30" width="13.44140625" style="7"/>
-    <col min="31" max="31" width="17.21875" style="7"/>
-    <col min="32" max="32" width="13.33203125" style="7"/>
-    <col min="33" max="33" width="13" style="7"/>
-    <col min="34" max="34" width="13.33203125" style="7"/>
-    <col min="35" max="35" width="64.6640625" style="7"/>
-    <col min="36" max="36" width="23.109375" style="7"/>
-    <col min="37" max="37" width="7.6640625" style="7"/>
-    <col min="38" max="38" width="8.88671875" style="7"/>
-    <col min="39" max="39" width="11" style="7"/>
-    <col min="40" max="40" width="9" style="7"/>
-    <col min="41" max="1025" width="9.109375" style="7"/>
-    <col min="1026" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="10.28515625" style="7"/>
+    <col min="2" max="3" width="11.7109375" style="7"/>
+    <col min="4" max="4" width="11.28515625" style="7"/>
+    <col min="5" max="5" width="16.140625" style="7"/>
+    <col min="6" max="6" width="84.7109375" style="7"/>
+    <col min="7" max="7" width="79.85546875" style="7"/>
+    <col min="8" max="8" width="44.28515625" style="7"/>
+    <col min="9" max="9" width="25" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="7"/>
+    <col min="12" max="12" width="8.85546875" style="7"/>
+    <col min="13" max="14" width="13.28515625" style="7"/>
+    <col min="15" max="16" width="57.28515625" style="7"/>
+    <col min="17" max="17" width="19.7109375" style="7"/>
+    <col min="18" max="18" width="11.28515625" style="7"/>
+    <col min="19" max="19" width="18.85546875" style="7"/>
+    <col min="20" max="20" width="13.7109375" style="7"/>
+    <col min="21" max="21" width="7" style="7"/>
+    <col min="22" max="22" width="14.7109375" style="7"/>
+    <col min="23" max="23" width="18.140625" style="7"/>
+    <col min="24" max="24" width="23" style="7"/>
+    <col min="25" max="25" width="22.7109375" style="7"/>
+    <col min="26" max="26" width="23.85546875" style="7"/>
+    <col min="27" max="27" width="20.28515625" style="7"/>
+    <col min="28" max="28" width="26.28515625" style="7"/>
+    <col min="29" max="29" width="27" style="7"/>
+    <col min="30" max="30" width="16.140625" style="7"/>
+    <col min="31" max="31" width="13.42578125" style="7"/>
+    <col min="32" max="32" width="17.28515625" style="7"/>
+    <col min="33" max="33" width="13.28515625" style="7"/>
+    <col min="34" max="34" width="13" style="7"/>
+    <col min="35" max="35" width="13.28515625" style="7"/>
+    <col min="36" max="36" width="64.7109375" style="7"/>
+    <col min="37" max="37" width="23.140625" style="7"/>
+    <col min="38" max="38" width="7.7109375" style="7"/>
+    <col min="39" max="39" width="8.85546875" style="7"/>
+    <col min="40" max="40" width="11" style="7"/>
+    <col min="41" max="41" width="9" style="7"/>
+    <col min="42" max="1026" width="9.140625" style="7" customWidth="1"/>
+    <col min="1027" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1493,111 +1520,116 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1611,19 +1643,19 @@
         <v>41</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -1643,23 +1675,24 @@
       <c r="AC2" s="9"/>
       <c r="AD2" s="9"/>
       <c r="AE2" s="9"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="13"/>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="9"/>
-      <c r="AK2" s="14">
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="14">
         <v>1</v>
       </c>
-      <c r="AL2" s="14">
+      <c r="AM2" s="14">
         <v>300</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AN2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
     </row>
-    <row r="3" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1675,25 +1708,29 @@
       <c r="E3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="G3" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="9"/>
+      <c r="I3" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="14"/>
+      <c r="O3" s="9"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
-      <c r="R3" s="9"/>
+      <c r="R3" s="14"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
@@ -1706,28 +1743,29 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9"/>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="9"/>
+      <c r="AG3" s="12"/>
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
-      <c r="AK3" s="9">
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9">
         <v>2</v>
       </c>
-      <c r="AL3" s="9">
+      <c r="AM3" s="9">
         <v>1</v>
       </c>
-      <c r="AM3" s="15" t="s">
+      <c r="AN3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AN3" s="9">
+      <c r="AO3" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1743,73 +1781,74 @@
       <c r="E4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="G4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="11">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" s="14">
+      <c r="P4" s="14">
         <v>54491472</v>
       </c>
-      <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="14"/>
+      <c r="S4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="16"/>
-      <c r="U4" s="9"/>
+      <c r="U4" s="16"/>
       <c r="V4" s="9"/>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="9"/>
+      <c r="X4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
-      <c r="AE4" s="9" t="s">
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF4" s="17">
+      <c r="AG4" s="17">
         <v>4.0169999999999997E-2</v>
       </c>
-      <c r="AG4" s="9"/>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="9"/>
-      <c r="AK4" s="9">
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9">
         <v>3</v>
       </c>
-      <c r="AL4" s="9">
+      <c r="AM4" s="9">
         <v>2</v>
       </c>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9">
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1825,73 +1864,74 @@
       <c r="E5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="G5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="11">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="14">
+      <c r="P5" s="14">
         <v>5449000131836</v>
       </c>
-      <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="14"/>
+      <c r="S5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="T5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="9"/>
+      <c r="U5" s="16"/>
       <c r="V5" s="9"/>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="9"/>
+      <c r="X5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
-      <c r="Z5" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9"/>
-      <c r="AE5" s="9" t="s">
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF5" s="17">
+      <c r="AG5" s="17">
         <v>4.0169000000000003E-2</v>
       </c>
-      <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9"/>
-      <c r="AK5" s="9">
-        <v>3</v>
-      </c>
+      <c r="AK5" s="9"/>
       <c r="AL5" s="9">
         <v>3</v>
       </c>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9">
+      <c r="AM5" s="9">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1907,73 +1947,74 @@
       <c r="E6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="G6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="11">
-        <v>1</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" s="14">
+      <c r="P6" s="14">
         <v>40822938</v>
       </c>
-      <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="14"/>
+      <c r="S6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="16"/>
-      <c r="U6" s="9"/>
+      <c r="U6" s="16"/>
       <c r="V6" s="9"/>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="9"/>
+      <c r="X6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
-      <c r="Z6" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9"/>
-      <c r="AE6" s="9" t="s">
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF6" s="17">
+      <c r="AG6" s="17">
         <v>4.0146000000000001E-2</v>
       </c>
-      <c r="AG6" s="9"/>
       <c r="AH6" s="9"/>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9"/>
-      <c r="AK6" s="9">
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9">
         <v>3</v>
       </c>
-      <c r="AL6" s="9">
+      <c r="AM6" s="9">
         <v>4</v>
       </c>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9">
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1989,73 +2030,74 @@
       <c r="E7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="G7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="11">
-        <v>1</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" s="14">
+      <c r="P7" s="14">
         <v>54491069</v>
       </c>
-      <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="14"/>
+      <c r="S7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="T7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="16"/>
-      <c r="U7" s="9"/>
+      <c r="U7" s="16"/>
       <c r="V7" s="9"/>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="9"/>
+      <c r="X7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
-      <c r="Z7" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9"/>
-      <c r="AE7" s="9" t="s">
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF7" s="17">
+      <c r="AG7" s="17">
         <v>4.0146000000000001E-2</v>
       </c>
-      <c r="AG7" s="9"/>
       <c r="AH7" s="9"/>
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9"/>
-      <c r="AK7" s="9">
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9">
         <v>3</v>
       </c>
-      <c r="AL7" s="9">
+      <c r="AM7" s="9">
         <v>5</v>
       </c>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9">
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -2071,73 +2113,74 @@
       <c r="E8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="G8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="11">
-        <v>1</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" s="14">
+      <c r="P8" s="14">
         <v>42099697</v>
       </c>
-      <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="14"/>
+      <c r="S8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="T8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="9"/>
+      <c r="U8" s="16"/>
       <c r="V8" s="9"/>
-      <c r="W8" s="9" t="s">
+      <c r="W8" s="9"/>
+      <c r="X8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
-      <c r="Z8" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9"/>
-      <c r="AE8" s="9" t="s">
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF8" s="17">
+      <c r="AG8" s="17">
         <v>2.1691999999999999E-2</v>
       </c>
-      <c r="AG8" s="9"/>
       <c r="AH8" s="9"/>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9"/>
-      <c r="AK8" s="9">
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9">
         <v>3</v>
       </c>
-      <c r="AL8" s="9">
+      <c r="AM8" s="9">
         <v>6</v>
       </c>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9">
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2153,73 +2196,74 @@
       <c r="E9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="G9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="11">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="11">
-        <v>1</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="14">
+      <c r="P9" s="14">
         <v>5449000214744</v>
       </c>
-      <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="14"/>
+      <c r="S9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="T9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T9" s="16"/>
-      <c r="U9" s="9"/>
+      <c r="U9" s="16"/>
       <c r="V9" s="9"/>
-      <c r="W9" s="9" t="s">
+      <c r="W9" s="9"/>
+      <c r="X9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
-      <c r="Z9" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9"/>
-      <c r="AE9" s="9" t="s">
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF9" s="17">
+      <c r="AG9" s="17">
         <v>2.1691999999999999E-2</v>
       </c>
-      <c r="AG9" s="9"/>
       <c r="AH9" s="9"/>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9"/>
-      <c r="AK9" s="9">
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9">
         <v>3</v>
       </c>
-      <c r="AL9" s="9">
+      <c r="AM9" s="9">
         <v>7</v>
       </c>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9">
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -2235,73 +2279,74 @@
       <c r="E10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="G10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="11">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O10" s="14">
+      <c r="P10" s="14">
         <v>5449000172228</v>
       </c>
-      <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="9" t="s">
+      <c r="R10" s="14"/>
+      <c r="S10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="T10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T10" s="16"/>
-      <c r="U10" s="9"/>
+      <c r="U10" s="16"/>
       <c r="V10" s="9"/>
-      <c r="W10" s="9" t="s">
+      <c r="W10" s="9"/>
+      <c r="X10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
-      <c r="Z10" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9"/>
-      <c r="AE10" s="9" t="s">
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF10" s="17">
+      <c r="AG10" s="17">
         <v>2.1691999999999999E-2</v>
       </c>
-      <c r="AG10" s="9"/>
       <c r="AH10" s="9"/>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9"/>
-      <c r="AK10" s="9">
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9">
         <v>3</v>
       </c>
-      <c r="AL10" s="9">
+      <c r="AM10" s="9">
         <v>8</v>
       </c>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="9">
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2317,73 +2362,74 @@
       <c r="E11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="11">
+      <c r="K11" s="9"/>
+      <c r="L11" s="11">
         <v>1</v>
       </c>
-      <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="9"/>
+      <c r="O11" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="P11" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="9" t="s">
+      <c r="R11" s="9"/>
+      <c r="S11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="T11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T11" s="16"/>
-      <c r="U11" s="9"/>
+      <c r="U11" s="16"/>
       <c r="V11" s="9"/>
-      <c r="W11" s="9" t="s">
+      <c r="W11" s="9"/>
+      <c r="X11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
-      <c r="Z11" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
-      <c r="AE11" s="9" t="s">
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF11" s="12">
+      <c r="AG11" s="12">
         <v>7.293E-3</v>
       </c>
-      <c r="AG11" s="9"/>
       <c r="AH11" s="9"/>
       <c r="AI11" s="9"/>
       <c r="AJ11" s="9"/>
-      <c r="AK11" s="9">
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9">
         <v>3</v>
       </c>
-      <c r="AL11" s="9">
+      <c r="AM11" s="9">
         <v>9</v>
       </c>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9">
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -2399,28 +2445,32 @@
       <c r="E12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="G12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="9"/>
+      <c r="I12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="14"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
-      <c r="R12" s="9"/>
+      <c r="R12" s="14"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="16"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -2430,28 +2480,29 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
-      <c r="AE12" s="9" t="s">
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="9"/>
+      <c r="AG12" s="12"/>
       <c r="AH12" s="9"/>
       <c r="AI12" s="9"/>
       <c r="AJ12" s="9"/>
-      <c r="AK12" s="9">
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9">
         <v>2</v>
       </c>
-      <c r="AL12" s="9">
+      <c r="AM12" s="9">
         <v>10</v>
       </c>
-      <c r="AM12" s="15" t="s">
+      <c r="AN12" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AN12" s="9">
+      <c r="AO12" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -2467,73 +2518,74 @@
       <c r="E13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="G13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="11">
+        <v>1</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="11">
-        <v>1</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O13" s="14">
+      <c r="P13" s="14">
         <v>40822426</v>
       </c>
-      <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="14"/>
+      <c r="S13" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="T13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="9"/>
+      <c r="U13" s="16"/>
       <c r="V13" s="9"/>
-      <c r="W13" s="9" t="s">
+      <c r="W13" s="9"/>
+      <c r="X13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
-      <c r="Z13" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
-      <c r="AE13" s="9" t="s">
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF13" s="17">
+      <c r="AG13" s="17">
         <v>2.0908E-2</v>
       </c>
-      <c r="AG13" s="9"/>
       <c r="AH13" s="9"/>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
-      <c r="AK13" s="9">
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9">
         <v>3</v>
       </c>
-      <c r="AL13" s="9">
+      <c r="AM13" s="9">
         <v>11</v>
       </c>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9">
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -2549,73 +2601,74 @@
       <c r="E14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="G14" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="11">
+      <c r="K14" s="9"/>
+      <c r="L14" s="11">
         <v>1</v>
       </c>
-      <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="11"/>
+      <c r="O14" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="P14" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="14"/>
+      <c r="S14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="T14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T14" s="16"/>
-      <c r="U14" s="9"/>
+      <c r="U14" s="16"/>
       <c r="V14" s="9"/>
-      <c r="W14" s="9" t="s">
+      <c r="W14" s="9"/>
+      <c r="X14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
-      <c r="Z14" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
-      <c r="AE14" s="9" t="s">
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF14" s="17">
+      <c r="AG14" s="17">
         <v>1.1924000000000001E-2</v>
       </c>
-      <c r="AG14" s="9"/>
       <c r="AH14" s="9"/>
       <c r="AI14" s="9"/>
       <c r="AJ14" s="9"/>
-      <c r="AK14" s="9">
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9">
         <v>3</v>
       </c>
-      <c r="AL14" s="9">
+      <c r="AM14" s="9">
         <v>12</v>
       </c>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="9">
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -2631,28 +2684,32 @@
       <c r="E15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="G15" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="9"/>
+      <c r="I15" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="14"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="9"/>
+      <c r="R15" s="14"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="16"/>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
@@ -2662,28 +2719,29 @@
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
-      <c r="AE15" s="9" t="s">
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="9"/>
+      <c r="AG15" s="12"/>
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9"/>
-      <c r="AK15" s="9">
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9">
         <v>2</v>
       </c>
-      <c r="AL15" s="9">
+      <c r="AM15" s="9">
         <v>13</v>
       </c>
-      <c r="AM15" s="15">
+      <c r="AN15" s="15">
         <v>14</v>
       </c>
-      <c r="AN15" s="9">
+      <c r="AO15" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -2699,73 +2757,74 @@
       <c r="E16" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="G16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="11">
+        <v>1</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="11">
-        <v>1</v>
-      </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="O16" s="14" t="s">
+      <c r="P16" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
-      <c r="R16" s="9" t="s">
+      <c r="R16" s="14"/>
+      <c r="S16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="T16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T16" s="16"/>
-      <c r="U16" s="9"/>
+      <c r="U16" s="16"/>
       <c r="V16" s="9"/>
-      <c r="W16" s="9" t="s">
+      <c r="W16" s="9"/>
+      <c r="X16" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
-      <c r="AE16" s="9" t="s">
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF16" s="17">
+      <c r="AG16" s="17">
         <v>1.1924000000000001E-2</v>
       </c>
-      <c r="AG16" s="9"/>
       <c r="AH16" s="9"/>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
-      <c r="AK16" s="9">
+      <c r="AK16" s="9"/>
+      <c r="AL16" s="9">
         <v>3</v>
       </c>
-      <c r="AL16" s="9">
+      <c r="AM16" s="9">
         <v>14</v>
       </c>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="9">
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -2781,28 +2840,32 @@
       <c r="E17" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="G17" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="9"/>
+      <c r="I17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
-      <c r="O17" s="14"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="14"/>
       <c r="Q17" s="14"/>
-      <c r="R17" s="9"/>
+      <c r="R17" s="14"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="16"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -2812,28 +2875,29 @@
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
-      <c r="AE17" s="9" t="s">
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="9"/>
+      <c r="AG17" s="12"/>
       <c r="AH17" s="9"/>
       <c r="AI17" s="9"/>
       <c r="AJ17" s="9"/>
-      <c r="AK17" s="9">
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9">
         <v>2</v>
       </c>
-      <c r="AL17" s="9">
+      <c r="AM17" s="9">
         <v>15</v>
       </c>
-      <c r="AM17" s="15" t="s">
+      <c r="AN17" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AN17" s="9">
+      <c r="AO17" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -2849,73 +2913,74 @@
       <c r="E18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="G18" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="11">
+      <c r="K18" s="9"/>
+      <c r="L18" s="11">
         <v>1</v>
       </c>
-      <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="9"/>
+      <c r="O18" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="O18" s="18" t="s">
+      <c r="P18" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
-      <c r="R18" s="9" t="s">
+      <c r="R18" s="14"/>
+      <c r="S18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S18" s="9" t="s">
+      <c r="T18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T18" s="16"/>
-      <c r="U18" s="9"/>
+      <c r="U18" s="16"/>
       <c r="V18" s="9"/>
-      <c r="W18" s="9" t="s">
+      <c r="W18" s="9"/>
+      <c r="X18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
-      <c r="Z18" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
-      <c r="AE18" s="9" t="s">
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF18" s="12">
+      <c r="AG18" s="12">
         <v>2.0892000000000001E-2</v>
       </c>
-      <c r="AG18" s="9"/>
       <c r="AH18" s="9"/>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
-      <c r="AK18" s="9">
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9">
         <v>3</v>
       </c>
-      <c r="AL18" s="9">
+      <c r="AM18" s="9">
         <v>16</v>
       </c>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="9">
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -2931,73 +2996,74 @@
       <c r="E19" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="11">
+      <c r="K19" s="9"/>
+      <c r="L19" s="11">
         <v>1</v>
       </c>
-      <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="9"/>
+      <c r="O19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="O19" s="14">
+      <c r="P19" s="14">
         <v>4607042430879</v>
       </c>
-      <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="9"/>
+      <c r="S19" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S19" s="9" t="s">
+      <c r="T19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T19" s="16"/>
-      <c r="U19" s="9"/>
+      <c r="U19" s="16"/>
       <c r="V19" s="9"/>
-      <c r="W19" s="9" t="s">
+      <c r="W19" s="9"/>
+      <c r="X19" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
-      <c r="Z19" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
-      <c r="AE19" s="9" t="s">
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF19" s="12">
+      <c r="AG19" s="12">
         <v>1.1924000000000001E-2</v>
       </c>
-      <c r="AG19" s="9"/>
       <c r="AH19" s="9"/>
       <c r="AI19" s="9"/>
       <c r="AJ19" s="9"/>
-      <c r="AK19" s="9">
+      <c r="AK19" s="9"/>
+      <c r="AL19" s="9">
         <v>3</v>
       </c>
-      <c r="AL19" s="9">
+      <c r="AM19" s="9">
         <v>17</v>
       </c>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="9">
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -3013,73 +3079,74 @@
       <c r="E20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="11">
+      <c r="K20" s="9"/>
+      <c r="L20" s="11">
         <v>1</v>
       </c>
-      <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="9"/>
+      <c r="O20" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="O20" s="14" t="s">
+      <c r="P20" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
-      <c r="R20" s="9" t="s">
+      <c r="R20" s="9"/>
+      <c r="S20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S20" s="9" t="s">
+      <c r="T20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T20" s="16"/>
-      <c r="U20" s="9"/>
+      <c r="U20" s="16"/>
       <c r="V20" s="9"/>
-      <c r="W20" s="9" t="s">
+      <c r="W20" s="9"/>
+      <c r="X20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
-      <c r="Z20" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
-      <c r="AE20" s="9" t="s">
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF20" s="12">
+      <c r="AG20" s="12">
         <v>1.1924000000000001E-2</v>
       </c>
-      <c r="AG20" s="9"/>
       <c r="AH20" s="9"/>
       <c r="AI20" s="9"/>
       <c r="AJ20" s="9"/>
-      <c r="AK20" s="9">
+      <c r="AK20" s="9"/>
+      <c r="AL20" s="9">
         <v>3</v>
       </c>
-      <c r="AL20" s="9">
+      <c r="AM20" s="9">
         <v>18</v>
       </c>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="9">
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -3095,73 +3162,74 @@
       <c r="E21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="11">
+      <c r="K21" s="9"/>
+      <c r="L21" s="11">
         <v>1</v>
       </c>
-      <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="9"/>
+      <c r="O21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="P21" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
-      <c r="R21" s="9" t="s">
+      <c r="R21" s="9"/>
+      <c r="S21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="9" t="s">
+      <c r="T21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="16"/>
-      <c r="U21" s="9"/>
+      <c r="U21" s="16"/>
       <c r="V21" s="9"/>
-      <c r="W21" s="9" t="s">
+      <c r="W21" s="9"/>
+      <c r="X21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
-      <c r="Z21" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
-      <c r="AE21" s="9" t="s">
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF21" s="12">
+      <c r="AG21" s="12">
         <v>1.1924000000000001E-2</v>
       </c>
-      <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
       <c r="AI21" s="9"/>
       <c r="AJ21" s="9"/>
-      <c r="AK21" s="9">
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="9">
         <v>3</v>
       </c>
-      <c r="AL21" s="9">
+      <c r="AM21" s="9">
         <v>19</v>
       </c>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9">
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -3177,28 +3245,32 @@
       <c r="E22" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="G22" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="9"/>
+      <c r="I22" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="14"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="16"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
@@ -3208,28 +3280,29 @@
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
-      <c r="AE22" s="9" t="s">
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="9"/>
+      <c r="AG22" s="12"/>
       <c r="AH22" s="9"/>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
-      <c r="AK22" s="9">
+      <c r="AK22" s="9"/>
+      <c r="AL22" s="9">
         <v>2</v>
       </c>
-      <c r="AL22" s="9">
+      <c r="AM22" s="9">
         <v>20</v>
       </c>
-      <c r="AM22" s="15" t="s">
+      <c r="AN22" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="AN22" s="9">
+      <c r="AO22" s="9">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -3245,73 +3318,74 @@
       <c r="E23" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="11">
+      <c r="K23" s="9"/>
+      <c r="L23" s="11">
         <v>1</v>
       </c>
-      <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="9" t="s">
+      <c r="N23" s="9"/>
+      <c r="O23" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="O23" s="14">
+      <c r="P23" s="14">
         <v>4607174577787</v>
       </c>
-      <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="9" t="s">
+      <c r="R23" s="9"/>
+      <c r="S23" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S23" s="9" t="s">
+      <c r="T23" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T23" s="16"/>
-      <c r="U23" s="9"/>
+      <c r="U23" s="16"/>
       <c r="V23" s="9"/>
-      <c r="W23" s="9" t="s">
+      <c r="W23" s="9"/>
+      <c r="X23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
-      <c r="Z23" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
-      <c r="AE23" s="9" t="s">
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF23" s="12">
+      <c r="AG23" s="12">
         <v>2.0892000000000001E-2</v>
       </c>
-      <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
-      <c r="AK23" s="9">
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9">
         <v>3</v>
       </c>
-      <c r="AL23" s="9">
+      <c r="AM23" s="9">
         <v>21</v>
       </c>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9">
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -3327,73 +3401,74 @@
       <c r="E24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="11">
+      <c r="K24" s="9"/>
+      <c r="L24" s="11">
         <v>1</v>
       </c>
-      <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="9" t="s">
+      <c r="N24" s="9"/>
+      <c r="O24" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="14">
+      <c r="P24" s="14">
         <v>4650075420980</v>
       </c>
-      <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="9" t="s">
+      <c r="R24" s="9"/>
+      <c r="S24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S24" s="9" t="s">
+      <c r="T24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T24" s="16"/>
-      <c r="U24" s="9"/>
+      <c r="U24" s="16"/>
       <c r="V24" s="9"/>
-      <c r="W24" s="9" t="s">
+      <c r="W24" s="9"/>
+      <c r="X24" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
-      <c r="Z24" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
-      <c r="AE24" s="9" t="s">
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF24" s="12">
+      <c r="AG24" s="12">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG24" s="9"/>
       <c r="AH24" s="9"/>
       <c r="AI24" s="9"/>
       <c r="AJ24" s="9"/>
-      <c r="AK24" s="9">
+      <c r="AK24" s="9"/>
+      <c r="AL24" s="9">
         <v>3</v>
       </c>
-      <c r="AL24" s="9">
+      <c r="AM24" s="9">
         <v>22</v>
       </c>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="9">
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -3409,73 +3484,74 @@
       <c r="E25" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="G25" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I25" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="11">
+      <c r="K25" s="9"/>
+      <c r="L25" s="11">
         <v>1</v>
       </c>
-      <c r="L25" s="11"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="11"/>
+      <c r="O25" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="O25" s="14" t="s">
+      <c r="P25" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
-      <c r="R25" s="9" t="s">
+      <c r="R25" s="14"/>
+      <c r="S25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S25" s="9" t="s">
+      <c r="T25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T25" s="16"/>
-      <c r="U25" s="9"/>
+      <c r="U25" s="16"/>
       <c r="V25" s="9"/>
-      <c r="W25" s="9" t="s">
+      <c r="W25" s="9"/>
+      <c r="X25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
-      <c r="Z25" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
-      <c r="AE25" s="9" t="s">
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF25" s="17">
+      <c r="AG25" s="17">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG25" s="9"/>
       <c r="AH25" s="9"/>
       <c r="AI25" s="9"/>
       <c r="AJ25" s="9"/>
-      <c r="AK25" s="9">
+      <c r="AK25" s="9"/>
+      <c r="AL25" s="9">
         <v>3</v>
       </c>
-      <c r="AL25" s="9">
+      <c r="AM25" s="9">
         <v>23</v>
       </c>
-      <c r="AM25" s="9"/>
-      <c r="AN25" s="9">
+      <c r="AN25" s="9"/>
+      <c r="AO25" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -3491,73 +3567,74 @@
       <c r="E26" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="G26" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="11">
+      <c r="K26" s="9"/>
+      <c r="L26" s="11">
         <v>1</v>
       </c>
-      <c r="L26" s="11"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="9" t="s">
+      <c r="N26" s="11"/>
+      <c r="O26" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="O26" s="14" t="s">
+      <c r="P26" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
-      <c r="R26" s="9" t="s">
+      <c r="R26" s="14"/>
+      <c r="S26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S26" s="9" t="s">
+      <c r="T26" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T26" s="16"/>
-      <c r="U26" s="9"/>
+      <c r="U26" s="16"/>
       <c r="V26" s="9"/>
-      <c r="W26" s="9" t="s">
+      <c r="W26" s="9"/>
+      <c r="X26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
-      <c r="Z26" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
-      <c r="AE26" s="9" t="s">
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF26" s="17">
+      <c r="AG26" s="17">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG26" s="9"/>
       <c r="AH26" s="9"/>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="9"/>
-      <c r="AK26" s="9">
+      <c r="AK26" s="9"/>
+      <c r="AL26" s="9">
         <v>3</v>
       </c>
-      <c r="AL26" s="9">
+      <c r="AM26" s="9">
         <v>24</v>
       </c>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="9">
+      <c r="AN26" s="9"/>
+      <c r="AO26" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -3573,73 +3650,74 @@
       <c r="E27" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="11">
+      <c r="K27" s="9"/>
+      <c r="L27" s="11">
         <v>1</v>
       </c>
-      <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="9"/>
+      <c r="O27" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="O27" s="14" t="s">
+      <c r="P27" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
-      <c r="R27" s="9" t="s">
+      <c r="R27" s="9"/>
+      <c r="S27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S27" s="9" t="s">
+      <c r="T27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T27" s="16"/>
-      <c r="U27" s="9"/>
+      <c r="U27" s="16"/>
       <c r="V27" s="9"/>
-      <c r="W27" s="9" t="s">
+      <c r="W27" s="9"/>
+      <c r="X27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
-      <c r="Z27" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
-      <c r="AE27" s="9" t="s">
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF27" s="12">
+      <c r="AG27" s="12">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
-      <c r="AK27" s="9">
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="9">
         <v>3</v>
       </c>
-      <c r="AL27" s="9">
+      <c r="AM27" s="9">
         <v>925</v>
       </c>
-      <c r="AM27" s="9"/>
-      <c r="AN27" s="9">
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -3655,73 +3733,74 @@
       <c r="E28" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="G28" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="11">
+        <v>1</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="11">
-        <v>1</v>
-      </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="O28" s="14" t="s">
+      <c r="P28" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
-      <c r="R28" s="9" t="s">
+      <c r="R28" s="14"/>
+      <c r="S28" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S28" s="9" t="s">
+      <c r="T28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T28" s="16"/>
-      <c r="U28" s="9"/>
+      <c r="U28" s="16"/>
       <c r="V28" s="9"/>
-      <c r="W28" s="9" t="s">
+      <c r="W28" s="9"/>
+      <c r="X28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
-      <c r="Z28" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
-      <c r="AE28" s="9" t="s">
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF28" s="17">
+      <c r="AG28" s="17">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG28" s="9"/>
       <c r="AH28" s="9"/>
       <c r="AI28" s="9"/>
       <c r="AJ28" s="9"/>
-      <c r="AK28" s="9">
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9">
         <v>3</v>
       </c>
-      <c r="AL28" s="9">
+      <c r="AM28" s="9">
         <v>926</v>
       </c>
-      <c r="AM28" s="9"/>
-      <c r="AN28" s="9">
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -3737,73 +3816,74 @@
       <c r="E29" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="G29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="11">
+        <v>1</v>
+      </c>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="11">
-        <v>1</v>
-      </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="O29" s="14" t="s">
+      <c r="P29" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
-      <c r="R29" s="9" t="s">
+      <c r="R29" s="14"/>
+      <c r="S29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S29" s="9" t="s">
+      <c r="T29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T29" s="16"/>
-      <c r="U29" s="9"/>
+      <c r="U29" s="16"/>
       <c r="V29" s="9"/>
-      <c r="W29" s="9" t="s">
+      <c r="W29" s="9"/>
+      <c r="X29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
-      <c r="Z29" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9" t="s">
+        <v>243</v>
+      </c>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
-      <c r="AE29" s="9" t="s">
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF29" s="17">
+      <c r="AG29" s="17">
         <v>7.4479999999999998E-3</v>
       </c>
-      <c r="AG29" s="9"/>
       <c r="AH29" s="9"/>
       <c r="AI29" s="9"/>
       <c r="AJ29" s="9"/>
-      <c r="AK29" s="9">
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9">
         <v>3</v>
       </c>
-      <c r="AL29" s="9">
+      <c r="AM29" s="9">
         <v>927</v>
       </c>
-      <c r="AM29" s="9"/>
-      <c r="AN29" s="9">
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>37</v>
       </c>
@@ -3817,17 +3897,17 @@
         <v>41</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="F30" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="G30" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
@@ -3849,23 +3929,24 @@
       <c r="AC30" s="9"/>
       <c r="AD30" s="9"/>
       <c r="AE30" s="9"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="13"/>
       <c r="AI30" s="9"/>
       <c r="AJ30" s="9"/>
-      <c r="AK30" s="14">
+      <c r="AK30" s="9"/>
+      <c r="AL30" s="14">
         <v>1</v>
       </c>
-      <c r="AL30" s="14">
+      <c r="AM30" s="14">
         <v>310</v>
       </c>
-      <c r="AM30" s="15" t="s">
+      <c r="AN30" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AN30" s="9"/>
+      <c r="AO30" s="9"/>
     </row>
-    <row r="31" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>38</v>
       </c>
@@ -3879,17 +3960,17 @@
         <v>41</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="F31" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="G31" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
@@ -3911,25 +3992,26 @@
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
       <c r="AE31" s="9"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="13"/>
       <c r="AI31" s="9"/>
       <c r="AJ31" s="9"/>
-      <c r="AK31" s="14">
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="14">
         <v>1</v>
       </c>
-      <c r="AL31" s="14">
+      <c r="AM31" s="14">
         <v>311</v>
       </c>
-      <c r="AM31" s="9">
+      <c r="AN31" s="9">
         <v>26</v>
       </c>
-      <c r="AN31" s="9">
+      <c r="AO31" s="9">
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>39</v>
       </c>
@@ -3945,28 +4027,28 @@
       <c r="E32" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="G32" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="I32" s="9" t="s">
         <v>138</v>
       </c>
+      <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
-      <c r="O32" s="14"/>
+      <c r="O32" s="9"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
-      <c r="R32" s="9" t="s">
+      <c r="R32" s="14"/>
+      <c r="S32" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S32" s="9"/>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
@@ -3977,35 +4059,36 @@
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
-      <c r="AD32" s="9" t="s">
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE32" s="9" t="s">
+      <c r="AF32" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AF32" s="12">
+      <c r="AG32" s="12">
         <v>0.08</v>
       </c>
-      <c r="AG32" s="9"/>
       <c r="AH32" s="9"/>
-      <c r="AI32" s="9" t="s">
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="9">
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9">
         <v>2</v>
       </c>
-      <c r="AL32" s="9">
+      <c r="AM32" s="9">
         <v>26</v>
       </c>
-      <c r="AM32" s="15" t="s">
+      <c r="AN32" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="AN32" s="9">
+      <c r="AO32" s="9">
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>40</v>
       </c>
@@ -4021,71 +4104,72 @@
       <c r="E33" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="G33" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I33" s="9" t="s">
         <v>146</v>
       </c>
+      <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="9">
+      <c r="K33" s="9"/>
+      <c r="L33" s="9">
         <v>1</v>
       </c>
-      <c r="L33" s="9"/>
       <c r="M33" s="9"/>
-      <c r="N33" s="9" t="s">
+      <c r="N33" s="9"/>
+      <c r="O33" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="O33" s="14" t="s">
+      <c r="P33" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9" t="s">
+      <c r="R33" s="14"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
-      <c r="X33" s="9" t="s">
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
-      <c r="AD33" s="9" t="s">
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE33" s="9" t="s">
+      <c r="AF33" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="9"/>
+      <c r="AG33" s="12"/>
       <c r="AH33" s="9"/>
-      <c r="AI33" s="9" t="s">
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9">
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9">
         <v>3</v>
       </c>
-      <c r="AL33" s="9">
+      <c r="AM33" s="9">
         <v>27</v>
       </c>
-      <c r="AM33" s="9"/>
-      <c r="AN33" s="9">
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>41</v>
       </c>
@@ -4101,69 +4185,70 @@
       <c r="E34" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="G34" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="I34" s="9" t="s">
         <v>154</v>
       </c>
+      <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="9">
+      <c r="K34" s="9"/>
+      <c r="L34" s="9">
         <v>0.01</v>
       </c>
-      <c r="L34" s="9"/>
       <c r="M34" s="9"/>
-      <c r="N34" s="9" t="s">
+      <c r="N34" s="9"/>
+      <c r="O34" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="O34" s="14" t="s">
+      <c r="P34" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9" t="s">
+      <c r="R34" s="14"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
-      <c r="X34" s="9" t="s">
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
-      <c r="AD34" s="9" t="s">
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE34" s="9" t="s">
+      <c r="AF34" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="9"/>
+      <c r="AG34" s="12"/>
       <c r="AH34" s="9"/>
       <c r="AI34" s="9"/>
       <c r="AJ34" s="9"/>
-      <c r="AK34" s="9">
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9">
         <v>3</v>
       </c>
-      <c r="AL34" s="9">
+      <c r="AM34" s="9">
         <v>28</v>
       </c>
-      <c r="AM34" s="9"/>
-      <c r="AN34" s="9">
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>42</v>
       </c>
@@ -4177,17 +4262,17 @@
         <v>41</v>
       </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="F35" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="G35" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="I35" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
@@ -4209,25 +4294,26 @@
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="13"/>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="9"/>
-      <c r="AK35" s="14">
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="14">
         <v>1</v>
       </c>
-      <c r="AL35" s="14">
+      <c r="AM35" s="14">
         <v>312</v>
       </c>
-      <c r="AM35" s="15" t="s">
+      <c r="AN35" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="AN35" s="9">
+      <c r="AO35" s="9">
         <v>310</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>43</v>
       </c>
@@ -4243,75 +4329,76 @@
       <c r="E36" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="G36" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I36" s="9" t="s">
         <v>162</v>
       </c>
+      <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="9">
+      <c r="K36" s="9"/>
+      <c r="L36" s="9">
         <v>1</v>
       </c>
-      <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="9" t="s">
+      <c r="O36" s="9"/>
+      <c r="P36" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9" t="s">
+      <c r="R36" s="14"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
-      <c r="X36" s="9" t="s">
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Y36" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z36" s="9"/>
+      <c r="Z36" s="23" t="s">
+        <v>244</v>
+      </c>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
-      <c r="AD36" s="9" t="s">
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE36" s="9" t="s">
+      <c r="AF36" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF36" s="12">
+      <c r="AG36" s="12">
         <v>0.04</v>
       </c>
-      <c r="AG36" s="9"/>
       <c r="AH36" s="9"/>
-      <c r="AI36" s="9" t="s">
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="AJ36" s="9" t="s">
+      <c r="AK36" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="AK36" s="9">
+      <c r="AL36" s="9">
         <v>2</v>
       </c>
-      <c r="AL36" s="9">
+      <c r="AM36" s="9">
         <v>29</v>
       </c>
-      <c r="AM36" s="9"/>
-      <c r="AN36" s="19">
+      <c r="AN36" s="9"/>
+      <c r="AO36" s="19">
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>44</v>
       </c>
@@ -4327,75 +4414,76 @@
       <c r="E37" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="G37" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I37" s="9" t="s">
         <v>168</v>
       </c>
+      <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="9">
+      <c r="K37" s="9"/>
+      <c r="L37" s="9">
         <v>1</v>
       </c>
-      <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="9" t="s">
+      <c r="N37" s="9"/>
+      <c r="O37" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="O37" s="14" t="s">
+      <c r="P37" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9" t="s">
+      <c r="R37" s="14"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="T37" s="9"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
-      <c r="X37" s="9" t="s">
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
-      <c r="AD37" s="9" t="s">
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE37" s="9" t="s">
+      <c r="AF37" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="AF37" s="12">
+      <c r="AG37" s="12">
         <v>0.04</v>
       </c>
-      <c r="AG37" s="9"/>
       <c r="AH37" s="9"/>
-      <c r="AI37" s="9" t="s">
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="AJ37" s="9" t="s">
+      <c r="AK37" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="AK37" s="9">
+      <c r="AL37" s="9">
         <v>2</v>
       </c>
-      <c r="AL37" s="9">
+      <c r="AM37" s="9">
         <v>30</v>
       </c>
-      <c r="AM37" s="9"/>
-      <c r="AN37" s="19">
+      <c r="AN37" s="9"/>
+      <c r="AO37" s="19">
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>45</v>
       </c>
@@ -4411,77 +4499,78 @@
       <c r="E38" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>170</v>
+      </c>
       <c r="G38" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="I38" s="9" t="s">
         <v>172</v>
       </c>
+      <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="9">
+      <c r="L38" s="9"/>
+      <c r="M38" s="9">
         <v>1</v>
       </c>
-      <c r="M38" s="9">
+      <c r="N38" s="9">
         <v>15</v>
       </c>
-      <c r="N38" s="9" t="s">
+      <c r="O38" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="O38" s="14" t="s">
+      <c r="P38" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9" t="s">
+      <c r="R38" s="14"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
-      <c r="X38" s="9" t="s">
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
-      <c r="AD38" s="9" t="s">
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE38" s="9" t="s">
+      <c r="AF38" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF38" s="12">
+      <c r="AG38" s="12">
         <v>0.04</v>
       </c>
-      <c r="AG38" s="9"/>
       <c r="AH38" s="9"/>
-      <c r="AI38" s="9" t="s">
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="AJ38" s="9" t="s">
+      <c r="AK38" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="AK38" s="9">
+      <c r="AL38" s="9">
         <v>2</v>
       </c>
-      <c r="AL38" s="9">
+      <c r="AM38" s="9">
         <v>31</v>
       </c>
-      <c r="AM38" s="9"/>
-      <c r="AN38" s="19">
+      <c r="AN38" s="9"/>
+      <c r="AO38" s="19">
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>46</v>
       </c>
@@ -4495,17 +4584,17 @@
         <v>41</v>
       </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="F39" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="G39" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="I39" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J39" s="9"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
@@ -4527,23 +4616,24 @@
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
       <c r="AE39" s="9"/>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="13"/>
       <c r="AI39" s="9"/>
       <c r="AJ39" s="9"/>
-      <c r="AK39" s="14">
+      <c r="AK39" s="9"/>
+      <c r="AL39" s="14">
         <v>1</v>
       </c>
-      <c r="AL39" s="14">
+      <c r="AM39" s="14">
         <v>400</v>
       </c>
-      <c r="AM39" s="15" t="s">
+      <c r="AN39" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="AN39" s="9"/>
+      <c r="AO39" s="9"/>
     </row>
-    <row r="40" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>48</v>
       </c>
@@ -4559,75 +4649,76 @@
       <c r="E40" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="9" t="s">
+        <v>177</v>
+      </c>
       <c r="G40" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I40" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I40" s="9"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="9">
+      <c r="K40" s="9"/>
+      <c r="L40" s="9">
         <v>4</v>
       </c>
-      <c r="L40" s="9"/>
       <c r="M40" s="9"/>
-      <c r="N40" s="9" t="s">
+      <c r="N40" s="9"/>
+      <c r="O40" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="O40" s="9" t="s">
+      <c r="P40" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
-      <c r="R40" s="9" t="s">
+      <c r="R40" s="9"/>
+      <c r="S40" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S40" s="9" t="s">
+      <c r="T40" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="T40" s="9"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
-      <c r="X40" s="9" t="s">
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Y40" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z40" s="9"/>
+      <c r="Z40" s="23" t="s">
+        <v>245</v>
+      </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
-      <c r="AD40" s="9" t="s">
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE40" s="9" t="s">
+      <c r="AF40" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF40" s="12">
+      <c r="AG40" s="12">
         <v>0.05</v>
       </c>
-      <c r="AG40" s="9"/>
       <c r="AH40" s="9"/>
       <c r="AI40" s="9"/>
       <c r="AJ40" s="9"/>
-      <c r="AK40" s="9">
+      <c r="AK40" s="9"/>
+      <c r="AL40" s="9">
         <v>2</v>
       </c>
-      <c r="AL40" s="9">
+      <c r="AM40" s="9">
         <v>33</v>
       </c>
-      <c r="AM40" s="9"/>
-      <c r="AN40" s="9">
+      <c r="AN40" s="9"/>
+      <c r="AO40" s="9">
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>49</v>
       </c>
@@ -4643,71 +4734,72 @@
       <c r="E41" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="G41" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="I41" s="9" t="s">
         <v>183</v>
       </c>
+      <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="9">
+      <c r="K41" s="9"/>
+      <c r="L41" s="9">
         <v>2</v>
       </c>
-      <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
-      <c r="R41" s="9" t="s">
+      <c r="R41" s="9"/>
+      <c r="S41" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="S41" s="9"/>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
-      <c r="X41" s="9" t="s">
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Y41" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z41" s="9"/>
+      <c r="Z41" s="23" t="s">
+        <v>246</v>
+      </c>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
-      <c r="AD41" s="9" t="s">
+      <c r="AD41" s="9"/>
+      <c r="AE41" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE41" s="9" t="s">
+      <c r="AF41" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF41" s="12">
+      <c r="AG41" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AG41" s="9"/>
       <c r="AH41" s="9"/>
       <c r="AI41" s="9"/>
       <c r="AJ41" s="9"/>
-      <c r="AK41" s="9">
+      <c r="AK41" s="9"/>
+      <c r="AL41" s="9">
         <v>2</v>
       </c>
-      <c r="AL41" s="9">
+      <c r="AM41" s="9">
         <v>34</v>
       </c>
-      <c r="AM41" s="15" t="s">
+      <c r="AN41" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="AN41" s="9">
+      <c r="AO41" s="9">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>50</v>
       </c>
@@ -4723,73 +4815,74 @@
       <c r="E42" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="G42" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="I42" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="9">
+      <c r="K42" s="9"/>
+      <c r="L42" s="9">
         <v>1</v>
       </c>
-      <c r="L42" s="9"/>
       <c r="M42" s="9"/>
-      <c r="N42" s="9" t="s">
+      <c r="N42" s="9"/>
+      <c r="O42" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="O42" s="9" t="s">
+      <c r="P42" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
-      <c r="R42" s="9" t="s">
+      <c r="R42" s="9"/>
+      <c r="S42" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S42" s="9" t="s">
+      <c r="T42" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T42" s="9"/>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
-      <c r="X42" s="9" t="s">
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Y42" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z42" s="9"/>
+      <c r="Z42" s="23" t="s">
+        <v>246</v>
+      </c>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
-      <c r="AD42" s="9" t="s">
+      <c r="AD42" s="9"/>
+      <c r="AE42" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE42" s="9" t="s">
+      <c r="AF42" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF42" s="12"/>
-      <c r="AG42" s="9"/>
+      <c r="AG42" s="12"/>
       <c r="AH42" s="9"/>
       <c r="AI42" s="9"/>
       <c r="AJ42" s="9"/>
-      <c r="AK42" s="9">
+      <c r="AK42" s="9"/>
+      <c r="AL42" s="9">
         <v>3</v>
       </c>
-      <c r="AL42" s="9">
+      <c r="AM42" s="9">
         <v>35</v>
       </c>
-      <c r="AM42" s="9"/>
-      <c r="AN42" s="9">
+      <c r="AN42" s="9"/>
+      <c r="AO42" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>51</v>
       </c>
@@ -4805,77 +4898,78 @@
       <c r="E43" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="G43" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="I43" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="9">
+      <c r="K43" s="9"/>
+      <c r="L43" s="9">
         <v>1</v>
       </c>
-      <c r="L43" s="9"/>
       <c r="M43" s="9"/>
-      <c r="N43" s="2" t="s">
+      <c r="N43" s="9"/>
+      <c r="O43" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="O43" s="9" t="s">
+      <c r="P43" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="9" t="s">
+      <c r="Q43" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9" t="s">
+      <c r="R43" s="9"/>
+      <c r="S43" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S43" s="9" t="s">
+      <c r="T43" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T43" s="9"/>
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
-      <c r="X43" s="9" t="s">
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Y43" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z43" s="9"/>
+      <c r="Z43" s="23" t="s">
+        <v>246</v>
+      </c>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
-      <c r="AD43" s="9" t="s">
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE43" s="9" t="s">
+      <c r="AF43" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF43" s="12"/>
-      <c r="AG43" s="9"/>
+      <c r="AG43" s="12"/>
       <c r="AH43" s="9"/>
-      <c r="AI43" s="9" t="s">
+      <c r="AI43" s="9"/>
+      <c r="AJ43" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="AJ43" s="9"/>
-      <c r="AK43" s="9">
+      <c r="AK43" s="9"/>
+      <c r="AL43" s="9">
         <v>3</v>
       </c>
-      <c r="AL43" s="9">
+      <c r="AM43" s="9">
         <v>36</v>
       </c>
-      <c r="AM43" s="9"/>
-      <c r="AN43" s="9">
+      <c r="AN43" s="9"/>
+      <c r="AO43" s="9">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>52</v>
       </c>
@@ -4891,69 +4985,70 @@
       <c r="E44" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="G44" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="I44" s="9" t="s">
         <v>183</v>
       </c>
+      <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="9">
+      <c r="K44" s="9"/>
+      <c r="L44" s="9">
         <v>1</v>
       </c>
-      <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="9" t="s">
+      <c r="O44" s="9"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="S44" s="9"/>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
-      <c r="X44" s="9" t="s">
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Y44" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z44" s="9"/>
+      <c r="Z44" s="23" t="s">
+        <v>246</v>
+      </c>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
       <c r="AD44" s="9"/>
-      <c r="AE44" s="9" t="s">
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF44" s="17">
+      <c r="AG44" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AG44" s="9"/>
       <c r="AH44" s="9"/>
       <c r="AI44" s="9"/>
       <c r="AJ44" s="9"/>
-      <c r="AK44" s="9">
+      <c r="AK44" s="9"/>
+      <c r="AL44" s="9">
         <v>2</v>
       </c>
-      <c r="AL44" s="9">
+      <c r="AM44" s="9">
         <v>680</v>
       </c>
-      <c r="AM44" s="15">
+      <c r="AN44" s="15">
         <v>769</v>
       </c>
-      <c r="AN44" s="19">
+      <c r="AO44" s="19">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>56</v>
       </c>
@@ -4969,69 +5064,70 @@
       <c r="E45" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="9" t="s">
+        <v>199</v>
+      </c>
       <c r="G45" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="I45" s="9" t="s">
         <v>201</v>
       </c>
+      <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="9">
+      <c r="K45" s="9"/>
+      <c r="L45" s="9">
         <v>2</v>
       </c>
-      <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9" t="s">
+      <c r="P45" s="9"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="S45" s="9"/>
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
-      <c r="X45" s="9" t="s">
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Y45" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z45" s="9"/>
+      <c r="Z45" s="23" t="s">
+        <v>246</v>
+      </c>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
-      <c r="AD45" s="9" t="s">
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE45" s="9" t="s">
+      <c r="AF45" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF45" s="17"/>
-      <c r="AG45" s="9"/>
+      <c r="AG45" s="17"/>
       <c r="AH45" s="9"/>
       <c r="AI45" s="9"/>
       <c r="AJ45" s="9"/>
-      <c r="AK45" s="9">
+      <c r="AK45" s="9"/>
+      <c r="AL45" s="9">
         <v>3</v>
       </c>
-      <c r="AL45" s="9">
+      <c r="AM45" s="9">
         <v>769</v>
       </c>
-      <c r="AM45" s="15" t="s">
+      <c r="AN45" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="AN45" s="9">
+      <c r="AO45" s="9">
         <v>680</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>57</v>
       </c>
@@ -5054,72 +5150,71 @@
         <v>204</v>
       </c>
       <c r="H46" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9">
+        <v>1</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9">
-        <v>1</v>
-      </c>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9" t="s">
+      <c r="P46" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="R46" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="S46" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="T46" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="O46" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="P46" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q46" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="R46" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="S46" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
-      <c r="X46" s="9" t="s">
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Y46" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z46" s="9"/>
+      <c r="Z46" s="23" t="s">
+        <v>246</v>
+      </c>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
-      <c r="AD46" s="9" t="s">
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE46" s="9" t="s">
+      <c r="AF46" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF46" s="17"/>
-      <c r="AG46" s="9"/>
+      <c r="AG46" s="17"/>
       <c r="AH46" s="9"/>
       <c r="AI46" s="9"/>
       <c r="AJ46" s="9"/>
-      <c r="AK46" s="9">
+      <c r="AK46" s="9"/>
+      <c r="AL46" s="9">
         <v>4</v>
       </c>
-      <c r="AL46" s="9">
+      <c r="AM46" s="9">
         <v>770</v>
       </c>
-      <c r="AM46" s="9"/>
-      <c r="AN46" s="9">
+      <c r="AN46" s="9"/>
+      <c r="AO46" s="9">
         <v>769</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>58</v>
       </c>
@@ -5136,78 +5231,77 @@
         <v>180</v>
       </c>
       <c r="F47" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>209</v>
-      </c>
       <c r="H47" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="I47" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="9">
+      <c r="K47" s="9"/>
+      <c r="L47" s="9">
         <v>1</v>
       </c>
-      <c r="L47" s="9"/>
       <c r="M47" s="9"/>
-      <c r="N47" s="2" t="s">
+      <c r="N47" s="9"/>
+      <c r="O47" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="O47" s="9" t="s">
+      <c r="P47" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="P47" s="9" t="s">
+      <c r="Q47" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9" t="s">
+      <c r="R47" s="9"/>
+      <c r="S47" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="S47" s="9" t="s">
+      <c r="T47" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
-      <c r="X47" s="9" t="s">
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="Y47" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z47" s="9"/>
+      <c r="Z47" s="23" t="s">
+        <v>246</v>
+      </c>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9"/>
       <c r="AC47" s="9"/>
-      <c r="AD47" s="9" t="s">
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="AE47" s="9" t="s">
+      <c r="AF47" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AF47" s="17"/>
-      <c r="AG47" s="9"/>
+      <c r="AG47" s="17"/>
       <c r="AH47" s="9"/>
-      <c r="AI47" s="9" t="s">
+      <c r="AI47" s="9"/>
+      <c r="AJ47" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="AJ47" s="9"/>
-      <c r="AK47" s="9">
+      <c r="AK47" s="9"/>
+      <c r="AL47" s="9">
         <v>4</v>
       </c>
-      <c r="AL47" s="9">
+      <c r="AM47" s="9">
         <v>771</v>
       </c>
-      <c r="AM47" s="9"/>
-      <c r="AN47" s="9">
+      <c r="AN47" s="9"/>
+      <c r="AO47" s="9">
         <v>769</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>59</v>
       </c>
@@ -5218,25 +5312,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="G48" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19" t="s">
+      <c r="H48" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -5244,10 +5338,10 @@
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
-      <c r="S48" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="T48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
@@ -5259,21 +5353,22 @@
       <c r="AC48" s="9"/>
       <c r="AD48" s="9"/>
       <c r="AE48" s="9"/>
-      <c r="AF48" s="12"/>
-      <c r="AG48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="12"/>
       <c r="AH48" s="9"/>
       <c r="AI48" s="9"/>
       <c r="AJ48" s="9"/>
       <c r="AK48" s="9"/>
-      <c r="AL48" s="9">
+      <c r="AL48" s="9"/>
+      <c r="AM48" s="9">
         <v>37</v>
       </c>
-      <c r="AM48" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="AN48" s="9"/>
+      <c r="AN48" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO48" s="9"/>
     </row>
-    <row r="49" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>60</v>
       </c>
@@ -5284,38 +5379,38 @@
         <v>40</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E49" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19" t="s">
+      <c r="H49" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="H49" s="19" t="s">
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="I49" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
-      <c r="O49" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="P49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
-      <c r="S49" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="T49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
       <c r="W49" s="9"/>
@@ -5327,21 +5422,22 @@
       <c r="AC49" s="9"/>
       <c r="AD49" s="9"/>
       <c r="AE49" s="9"/>
-      <c r="AF49" s="12"/>
-      <c r="AG49" s="9"/>
+      <c r="AF49" s="9"/>
+      <c r="AG49" s="12"/>
       <c r="AH49" s="9"/>
       <c r="AI49" s="9"/>
       <c r="AJ49" s="9"/>
       <c r="AK49" s="9"/>
-      <c r="AL49" s="9">
+      <c r="AL49" s="9"/>
+      <c r="AM49" s="9">
         <v>38</v>
       </c>
-      <c r="AM49" s="9">
+      <c r="AN49" s="9">
         <v>32</v>
       </c>
-      <c r="AN49" s="9"/>
+      <c r="AO49" s="9"/>
     </row>
-    <row r="50" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>61</v>
       </c>
@@ -5352,38 +5448,38 @@
         <v>40</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F50" s="19"/>
+      <c r="F50" s="19" t="s">
+        <v>223</v>
+      </c>
       <c r="G50" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="K50" s="9"/>
+        <v>224</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="P50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="15" t="s">
+        <v>225</v>
+      </c>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
-      <c r="S50" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="T50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
       <c r="W50" s="9"/>
@@ -5395,21 +5491,22 @@
       <c r="AC50" s="9"/>
       <c r="AD50" s="9"/>
       <c r="AE50" s="9"/>
-      <c r="AF50" s="12"/>
-      <c r="AG50" s="9"/>
+      <c r="AF50" s="9"/>
+      <c r="AG50" s="12"/>
       <c r="AH50" s="9"/>
       <c r="AI50" s="9"/>
       <c r="AJ50" s="9"/>
       <c r="AK50" s="9"/>
-      <c r="AL50" s="9">
+      <c r="AL50" s="9"/>
+      <c r="AM50" s="9">
         <v>39</v>
       </c>
-      <c r="AM50" s="9">
+      <c r="AN50" s="9">
         <v>33</v>
       </c>
-      <c r="AN50" s="9"/>
+      <c r="AO50" s="9"/>
     </row>
-    <row r="51" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>62</v>
       </c>
@@ -5420,40 +5517,40 @@
         <v>40</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F51" s="19"/>
+        <v>226</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>227</v>
+      </c>
       <c r="G51" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="K51" s="9"/>
+        <v>227</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
-      <c r="N51" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="O51" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="P51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="P51" s="15" t="s">
+        <v>229</v>
+      </c>
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
-      <c r="S51" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="T51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
@@ -5465,21 +5562,22 @@
       <c r="AC51" s="9"/>
       <c r="AD51" s="9"/>
       <c r="AE51" s="9"/>
-      <c r="AF51" s="12"/>
-      <c r="AG51" s="9"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="12"/>
       <c r="AH51" s="9"/>
       <c r="AI51" s="9"/>
       <c r="AJ51" s="9"/>
       <c r="AK51" s="9"/>
-      <c r="AL51" s="9">
+      <c r="AL51" s="9"/>
+      <c r="AM51" s="9">
         <v>40</v>
       </c>
-      <c r="AM51" s="9">
+      <c r="AN51" s="9">
         <v>34</v>
       </c>
-      <c r="AN51" s="9"/>
+      <c r="AO51" s="9"/>
     </row>
-    <row r="52" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>63</v>
       </c>
@@ -5490,40 +5588,40 @@
         <v>40</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F52" s="9"/>
+      <c r="F52" s="19" t="s">
+        <v>230</v>
+      </c>
       <c r="G52" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="K52" s="9"/>
+        <v>231</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9" t="s">
+        <v>221</v>
+      </c>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
-      <c r="N52" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="O52" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="P52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="P52" s="15" t="s">
+        <v>232</v>
+      </c>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
-      <c r="S52" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="T52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
       <c r="W52" s="9"/>
@@ -5535,21 +5633,22 @@
       <c r="AC52" s="9"/>
       <c r="AD52" s="9"/>
       <c r="AE52" s="9"/>
-      <c r="AF52" s="12"/>
-      <c r="AG52" s="9"/>
-      <c r="AH52" s="13"/>
-      <c r="AI52" s="9"/>
+      <c r="AF52" s="9"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="9"/>
+      <c r="AI52" s="13"/>
       <c r="AJ52" s="9"/>
       <c r="AK52" s="9"/>
-      <c r="AL52" s="9">
+      <c r="AL52" s="9"/>
+      <c r="AM52" s="9">
         <v>42</v>
       </c>
-      <c r="AM52" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN52" s="9"/>
+      <c r="AN52" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO52" s="9"/>
     </row>
-    <row r="53" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>64</v>
       </c>
@@ -5560,64 +5659,65 @@
         <v>40</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E53" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G53" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19" t="s">
+      <c r="H53" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="H53" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="K53" s="11"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="P53" s="9"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="20" t="s">
+        <v>238</v>
+      </c>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
-      <c r="S53" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="T53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9" t="s">
+        <v>239</v>
+      </c>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
-      <c r="X53" s="9" t="s">
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="9"/>
+      <c r="Z53" s="15"/>
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
       <c r="AD53" s="9"/>
-      <c r="AE53" s="17"/>
-      <c r="AF53" s="9"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="17"/>
       <c r="AG53" s="9"/>
       <c r="AH53" s="9"/>
       <c r="AI53" s="9"/>
       <c r="AJ53" s="9"/>
       <c r="AK53" s="9"/>
-      <c r="AL53" s="9">
+      <c r="AL53" s="9"/>
+      <c r="AM53" s="9">
         <v>43</v>
       </c>
-      <c r="AM53" s="9"/>
-      <c r="AN53" s="8"/>
+      <c r="AN53" s="9"/>
+      <c r="AO53" s="8"/>
     </row>
-    <row r="54" spans="1:40" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>65</v>
       </c>
@@ -5628,34 +5728,34 @@
         <v>40</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
+      <c r="F54" s="19" t="s">
+        <v>240</v>
+      </c>
       <c r="G54" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="H54" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K54" s="11"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="9"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="21"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
-      <c r="S54" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="T54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9" t="s">
+        <v>215</v>
+      </c>
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
@@ -5666,21 +5766,22 @@
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
       <c r="AD54" s="9"/>
-      <c r="AE54" s="17"/>
-      <c r="AF54" s="9"/>
+      <c r="AE54" s="9"/>
+      <c r="AF54" s="17"/>
       <c r="AG54" s="9"/>
       <c r="AH54" s="9"/>
       <c r="AI54" s="9"/>
-      <c r="AJ54" s="22"/>
-      <c r="AK54" s="9"/>
-      <c r="AL54" s="9">
+      <c r="AJ54" s="9"/>
+      <c r="AK54" s="22"/>
+      <c r="AL54" s="9"/>
+      <c r="AM54" s="9">
         <v>401</v>
       </c>
-      <c r="AM54" s="9"/>
       <c r="AN54" s="9"/>
+      <c r="AO54" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AO54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2019/PoS 2019 - IC Cinema - REG.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2019\POS_2019-12-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506B50B4-4D0F-404B-B29B-63BF8C533F7C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D4256F-B23B-4DCC-B8F2-8F204D34BD14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1200" windowWidth="21840" windowHeight="13140" tabRatio="760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cinema" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -840,10 +840,10 @@
     <t>Panoramic photo of Cooler; SS_Panoramic photo of Cooler - Horeca</t>
   </si>
   <si>
-    <t>Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR; SS_Menu Board - Canteen, QSR</t>
-  </si>
-  <si>
     <t>Cash Zone; SS_Cash Zone - Canteen, QSR; Promo SSD Display IC</t>
+  </si>
+  <si>
+    <t>Conbo1; Combo2; Combo3; Menu Board; Cash Zone; SS_Cash Zone - Canteen, QSR; SS_Menu Board - Canteen, QSR</t>
   </si>
 </sst>
 </file>
@@ -1452,10 +1452,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK54"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="P1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="R1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="Z41" sqref="Z41"/>
+      <selection pane="bottomLeft" activeCell="Z41" sqref="Z41:Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4681,7 +4681,7 @@
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
@@ -4758,7 +4758,7 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
@@ -4843,7 +4843,7 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
@@ -4926,7 +4926,7 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
@@ -5003,7 +5003,7 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
@@ -5080,7 +5080,7 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
@@ -5167,7 +5167,7 @@
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
@@ -5250,7 +5250,7 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
